--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Saa1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Saa1-Cd36.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Saa1</t>
+  </si>
+  <si>
+    <t>Cd36</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Saa1</t>
-  </si>
-  <si>
-    <t>Cd36</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.0002446666666666666</v>
+        <v>0.001083333333333333</v>
       </c>
       <c r="H2">
-        <v>0.000734</v>
+        <v>0.00325</v>
       </c>
       <c r="I2">
-        <v>0.0217024925342243</v>
+        <v>0.05762615695592042</v>
       </c>
       <c r="J2">
-        <v>0.0217024925342243</v>
+        <v>0.05762615695592042</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>503.7454223333334</v>
+        <v>279.6078796666666</v>
       </c>
       <c r="N2">
-        <v>1511.236267</v>
+        <v>838.823639</v>
       </c>
       <c r="O2">
-        <v>0.6437328705599147</v>
+        <v>0.5726675140320879</v>
       </c>
       <c r="P2">
-        <v>0.6724324423344897</v>
+        <v>0.5775260287976519</v>
       </c>
       <c r="Q2">
-        <v>0.1232497133308889</v>
+        <v>0.3029085363055555</v>
       </c>
       <c r="R2">
-        <v>1.109247419978</v>
+        <v>2.72617682675</v>
       </c>
       <c r="S2">
-        <v>0.01397060781736132</v>
+        <v>0.03300062804716986</v>
       </c>
       <c r="T2">
-        <v>0.01459346005953448</v>
+        <v>0.0332806055816229</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.0002446666666666666</v>
+        <v>0.001083333333333333</v>
       </c>
       <c r="H3">
-        <v>0.000734</v>
+        <v>0.00325</v>
       </c>
       <c r="I3">
-        <v>0.0217024925342243</v>
+        <v>0.05762615695592042</v>
       </c>
       <c r="J3">
-        <v>0.0217024925342243</v>
+        <v>0.05762615695592042</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.067574</v>
       </c>
       <c r="O3">
-        <v>0.0008807129468624942</v>
+        <v>0.001411539217074187</v>
       </c>
       <c r="P3">
-        <v>0.0009199778121307423</v>
+        <v>0.001423514724607417</v>
       </c>
       <c r="Q3">
-        <v>0.0001686221462222222</v>
+        <v>0.0007466239444444445</v>
       </c>
       <c r="R3">
-        <v>0.001517599316</v>
+        <v>0.0067196155</v>
       </c>
       <c r="S3">
-        <v>1.911366615407796E-05</v>
+        <v>8.134158047255412E-05</v>
       </c>
       <c r="T3">
-        <v>1.996581159941944E-05</v>
+        <v>8.203168294929084E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.0002446666666666666</v>
+        <v>0.001083333333333333</v>
       </c>
       <c r="H4">
-        <v>0.000734</v>
+        <v>0.00325</v>
       </c>
       <c r="I4">
-        <v>0.0217024925342243</v>
+        <v>0.05762615695592042</v>
       </c>
       <c r="J4">
-        <v>0.0217024925342243</v>
+        <v>0.05762615695592042</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>113.3692653333333</v>
+        <v>55.12872433333333</v>
       </c>
       <c r="N4">
-        <v>340.107796</v>
+        <v>165.386173</v>
       </c>
       <c r="O4">
-        <v>0.1448738179460895</v>
+        <v>0.1129096560274583</v>
       </c>
       <c r="P4">
-        <v>0.1513327339445596</v>
+        <v>0.1138675822543568</v>
       </c>
       <c r="Q4">
-        <v>0.02773768025155555</v>
+        <v>0.05972278469444444</v>
       </c>
       <c r="R4">
-        <v>0.249639122264</v>
+        <v>0.5375050622499999</v>
       </c>
       <c r="S4">
-        <v>0.003144122952379577</v>
+        <v>0.006506549560077296</v>
       </c>
       <c r="T4">
-        <v>0.003284297528615557</v>
+        <v>0.006561751167180746</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.0002446666666666666</v>
+        <v>0.001083333333333333</v>
       </c>
       <c r="H5">
-        <v>0.000734</v>
+        <v>0.00325</v>
       </c>
       <c r="I5">
-        <v>0.0217024925342243</v>
+        <v>0.05762615695592042</v>
       </c>
       <c r="J5">
-        <v>0.0217024925342243</v>
+        <v>0.05762615695592042</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>100.196705</v>
+        <v>12.3225355</v>
       </c>
       <c r="N5">
-        <v>200.39341</v>
+        <v>24.645071</v>
       </c>
       <c r="O5">
-        <v>0.12804069212487</v>
+        <v>0.02523790023288966</v>
       </c>
       <c r="P5">
-        <v>0.08916609074075163</v>
+        <v>0.01696801249072354</v>
       </c>
       <c r="Q5">
-        <v>0.02451479382333333</v>
+        <v>0.01334941345833333</v>
       </c>
       <c r="R5">
-        <v>0.14708876294</v>
+        <v>0.08009648074999999</v>
       </c>
       <c r="S5">
-        <v>0.002778802164916903</v>
+        <v>0.00145436320005836</v>
       </c>
       <c r="T5">
-        <v>0.001935126418607129</v>
+        <v>0.0009778013510204531</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.0002446666666666666</v>
+        <v>0.001083333333333333</v>
       </c>
       <c r="H6">
-        <v>0.000734</v>
+        <v>0.00325</v>
       </c>
       <c r="I6">
-        <v>0.0217024925342243</v>
+        <v>0.05762615695592042</v>
       </c>
       <c r="J6">
-        <v>0.0217024925342243</v>
+        <v>0.05762615695592042</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>64.53739933333333</v>
+        <v>140.5068483333333</v>
       </c>
       <c r="N6">
-        <v>193.612198</v>
+        <v>421.520545</v>
       </c>
       <c r="O6">
-        <v>0.08247190642226332</v>
+        <v>0.2877733904904901</v>
       </c>
       <c r="P6">
-        <v>0.0861487551680685</v>
+        <v>0.2902148617326603</v>
       </c>
       <c r="Q6">
-        <v>0.01579015037022222</v>
+        <v>0.1522157523611111</v>
       </c>
       <c r="R6">
-        <v>0.142111353332</v>
+        <v>1.36994177125</v>
       </c>
       <c r="S6">
-        <v>0.001789845933412415</v>
+        <v>0.01658327456814236</v>
       </c>
       <c r="T6">
-        <v>0.001869642715867724</v>
+        <v>0.01672396717314702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.001083333333333333</v>
+        <v>0.017716</v>
       </c>
       <c r="H7">
-        <v>0.00325</v>
+        <v>0.053148</v>
       </c>
       <c r="I7">
-        <v>0.09609414269241004</v>
+        <v>0.9423738430440797</v>
       </c>
       <c r="J7">
-        <v>0.09609414269241004</v>
+        <v>0.9423738430440796</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>503.7454223333334</v>
+        <v>279.6078796666666</v>
       </c>
       <c r="N7">
-        <v>1511.236267</v>
+        <v>838.823639</v>
       </c>
       <c r="O7">
-        <v>0.6437328705599147</v>
+        <v>0.5726675140320879</v>
       </c>
       <c r="P7">
-        <v>0.6724324423344897</v>
+        <v>0.5775260287976519</v>
       </c>
       <c r="Q7">
-        <v>0.5457242075277777</v>
+        <v>4.953533196174666</v>
       </c>
       <c r="R7">
-        <v>4.91151786775</v>
+        <v>44.581798765572</v>
       </c>
       <c r="S7">
-        <v>0.06185895831937916</v>
+        <v>0.5396668859849181</v>
       </c>
       <c r="T7">
-        <v>0.06461681906469624</v>
+        <v>0.544245423216029</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.001083333333333333</v>
+        <v>0.017716</v>
       </c>
       <c r="H8">
-        <v>0.00325</v>
+        <v>0.053148</v>
       </c>
       <c r="I8">
-        <v>0.09609414269241004</v>
+        <v>0.9423738430440797</v>
       </c>
       <c r="J8">
-        <v>0.09609414269241004</v>
+        <v>0.9423738430440796</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>2.067574</v>
       </c>
       <c r="O8">
-        <v>0.0008807129468624942</v>
+        <v>0.001411539217074187</v>
       </c>
       <c r="P8">
-        <v>0.0009199778121307423</v>
+        <v>0.001423514724607417</v>
       </c>
       <c r="Q8">
-        <v>0.0007466239444444445</v>
+        <v>0.01220971366133333</v>
       </c>
       <c r="R8">
-        <v>0.0067196155</v>
+        <v>0.109887422952</v>
       </c>
       <c r="S8">
-        <v>8.463135558685745E-05</v>
+        <v>0.001330197636601633</v>
       </c>
       <c r="T8">
-        <v>8.840447915274275E-05</v>
+        <v>0.001341483041658126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.001083333333333333</v>
+        <v>0.017716</v>
       </c>
       <c r="H9">
-        <v>0.00325</v>
+        <v>0.053148</v>
       </c>
       <c r="I9">
-        <v>0.09609414269241004</v>
+        <v>0.9423738430440797</v>
       </c>
       <c r="J9">
-        <v>0.09609414269241004</v>
+        <v>0.9423738430440796</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>113.3692653333333</v>
+        <v>55.12872433333333</v>
       </c>
       <c r="N9">
-        <v>340.107796</v>
+        <v>165.386173</v>
       </c>
       <c r="O9">
-        <v>0.1448738179460895</v>
+        <v>0.1129096560274583</v>
       </c>
       <c r="P9">
-        <v>0.1513327339445596</v>
+        <v>0.1138675822543568</v>
       </c>
       <c r="Q9">
-        <v>0.1228167041111111</v>
+        <v>0.9766604802893333</v>
       </c>
       <c r="R9">
-        <v>1.105350337</v>
+        <v>8.789944322603999</v>
       </c>
       <c r="S9">
-        <v>0.01392152533410576</v>
+        <v>0.106403106467381</v>
       </c>
       <c r="T9">
-        <v>0.01454218932970103</v>
+        <v>0.1073058310871761</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.001083333333333333</v>
+        <v>0.017716</v>
       </c>
       <c r="H10">
-        <v>0.00325</v>
+        <v>0.053148</v>
       </c>
       <c r="I10">
-        <v>0.09609414269241004</v>
+        <v>0.9423738430440797</v>
       </c>
       <c r="J10">
-        <v>0.09609414269241004</v>
+        <v>0.9423738430440796</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.196705</v>
+        <v>12.3225355</v>
       </c>
       <c r="N10">
-        <v>200.39341</v>
+        <v>24.645071</v>
       </c>
       <c r="O10">
-        <v>0.12804069212487</v>
+        <v>0.02523790023288966</v>
       </c>
       <c r="P10">
-        <v>0.08916609074075163</v>
+        <v>0.01696801249072354</v>
       </c>
       <c r="Q10">
-        <v>0.1085464304166667</v>
+        <v>0.218306038918</v>
       </c>
       <c r="R10">
-        <v>0.6512785825</v>
+        <v>1.309836233508</v>
       </c>
       <c r="S10">
-        <v>0.0123039605394822</v>
+        <v>0.0237835370328313</v>
       </c>
       <c r="T10">
-        <v>0.008568339046966168</v>
+        <v>0.01599021113970309</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.001083333333333333</v>
+        <v>0.017716</v>
       </c>
       <c r="H11">
-        <v>0.00325</v>
+        <v>0.053148</v>
       </c>
       <c r="I11">
-        <v>0.09609414269241004</v>
+        <v>0.9423738430440797</v>
       </c>
       <c r="J11">
-        <v>0.09609414269241004</v>
+        <v>0.9423738430440796</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>64.53739933333333</v>
+        <v>140.5068483333333</v>
       </c>
       <c r="N11">
-        <v>193.612198</v>
+        <v>421.520545</v>
       </c>
       <c r="O11">
-        <v>0.08247190642226332</v>
+        <v>0.2877733904904901</v>
       </c>
       <c r="P11">
-        <v>0.0861487551680685</v>
+        <v>0.2902148617326603</v>
       </c>
       <c r="Q11">
-        <v>0.06991551594444444</v>
+        <v>2.489219325073333</v>
       </c>
       <c r="R11">
-        <v>0.6292396434999999</v>
+        <v>22.40297392566</v>
       </c>
       <c r="S11">
-        <v>0.00792506714385606</v>
+        <v>0.2711901159223477</v>
       </c>
       <c r="T11">
-        <v>0.008278390771893872</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.009945666666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.029837</v>
-      </c>
-      <c r="I12">
-        <v>0.8822033647733657</v>
-      </c>
-      <c r="J12">
-        <v>0.8822033647733657</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>503.7454223333334</v>
-      </c>
-      <c r="N12">
-        <v>1511.236267</v>
-      </c>
-      <c r="O12">
-        <v>0.6437328705599147</v>
-      </c>
-      <c r="P12">
-        <v>0.6724324423344897</v>
-      </c>
-      <c r="Q12">
-        <v>5.010084055386556</v>
-      </c>
-      <c r="R12">
-        <v>45.090756498479</v>
-      </c>
-      <c r="S12">
-        <v>0.5679033044231742</v>
-      </c>
-      <c r="T12">
-        <v>0.593222163210259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.009945666666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.029837</v>
-      </c>
-      <c r="I13">
-        <v>0.8822033647733657</v>
-      </c>
-      <c r="J13">
-        <v>0.8822033647733657</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.6891913333333334</v>
-      </c>
-      <c r="N13">
-        <v>2.067574</v>
-      </c>
-      <c r="O13">
-        <v>0.0008807129468624942</v>
-      </c>
-      <c r="P13">
-        <v>0.0009199778121307423</v>
-      </c>
-      <c r="Q13">
-        <v>0.00685446727088889</v>
-      </c>
-      <c r="R13">
-        <v>0.061690205438</v>
-      </c>
-      <c r="S13">
-        <v>0.0007769679251215588</v>
-      </c>
-      <c r="T13">
-        <v>0.0008116075213785802</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.009945666666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.029837</v>
-      </c>
-      <c r="I14">
-        <v>0.8822033647733657</v>
-      </c>
-      <c r="J14">
-        <v>0.8822033647733657</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>113.3692653333333</v>
-      </c>
-      <c r="N14">
-        <v>340.107796</v>
-      </c>
-      <c r="O14">
-        <v>0.1448738179460895</v>
-      </c>
-      <c r="P14">
-        <v>0.1513327339445596</v>
-      </c>
-      <c r="Q14">
-        <v>1.127532923250222</v>
-      </c>
-      <c r="R14">
-        <v>10.147796309252</v>
-      </c>
-      <c r="S14">
-        <v>0.1278081696596041</v>
-      </c>
-      <c r="T14">
-        <v>0.133506247086243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.009945666666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.029837</v>
-      </c>
-      <c r="I15">
-        <v>0.8822033647733657</v>
-      </c>
-      <c r="J15">
-        <v>0.8822033647733657</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>100.196705</v>
-      </c>
-      <c r="N15">
-        <v>200.39341</v>
-      </c>
-      <c r="O15">
-        <v>0.12804069212487</v>
-      </c>
-      <c r="P15">
-        <v>0.08916609074075163</v>
-      </c>
-      <c r="Q15">
-        <v>0.9965230290283335</v>
-      </c>
-      <c r="R15">
-        <v>5.97913817417</v>
-      </c>
-      <c r="S15">
-        <v>0.1129579294204709</v>
-      </c>
-      <c r="T15">
-        <v>0.07866262527517834</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.009945666666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.029837</v>
-      </c>
-      <c r="I16">
-        <v>0.8822033647733657</v>
-      </c>
-      <c r="J16">
-        <v>0.8822033647733657</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>64.53739933333333</v>
-      </c>
-      <c r="N16">
-        <v>193.612198</v>
-      </c>
-      <c r="O16">
-        <v>0.08247190642226332</v>
-      </c>
-      <c r="P16">
-        <v>0.0861487551680685</v>
-      </c>
-      <c r="Q16">
-        <v>0.6418674613028889</v>
-      </c>
-      <c r="R16">
-        <v>5.776807151726</v>
-      </c>
-      <c r="S16">
-        <v>0.07275699334499484</v>
-      </c>
-      <c r="T16">
-        <v>0.0760007216803069</v>
+        <v>0.2734908945595133</v>
       </c>
     </row>
   </sheetData>
